--- a/FILES/BALANCE/bilans2019.xlsx
+++ b/FILES/BALANCE/bilans2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehlimana\Documents\GitHub\Electricity-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehlimana\Documents\GitHub\Electricity-analysis\FILES\BALANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AC853-2765-4FAC-9DD8-36324FBAD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D47BAA-1F27-4EEC-86FD-96F7BEA0FD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{6F034462-F170-45F1-9CF6-4F6A972777C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F034462-F170-45F1-9CF6-4F6A972777C8}"/>
   </bookViews>
   <sheets>
     <sheet name="TJ_2019" sheetId="8" r:id="rId1"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2809EED2-E20C-47A0-B24E-8BE474AE50B9}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA27AC6-4A36-401F-80F6-18153FD4FB45}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5711,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D149C9-3D44-465B-9C3F-638E8071DDE1}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6567,10 +6567,10 @@
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <f>B19/L19</f>
         <v>0.3546099290780142</v>
       </c>
@@ -6581,10 +6581,10 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <f>D19/L19</f>
         <v>0.32624113475177308</v>
       </c>
@@ -6597,27 +6597,27 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <f>(ABS(G11)/(J11+J12))*100</f>
         <v>31.761624099541585</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <f>ABS(G11+H11)/(J11+J12)*100</f>
         <v>31.892599869024231</v>
       </c>
       <c r="G36" t="s">
         <v>110</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <f>J19/L19</f>
         <v>0.31678486997635935</v>
       </c>
@@ -6645,10 +6645,10 @@
       <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <f>(K19/L19)</f>
         <v>2.3640661938534278E-3</v>
       </c>
@@ -8351,7 +8351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E415C40-8494-4F35-B83E-72693A09AC79}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
